--- a/out_template.xlsx
+++ b/out_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3810" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4155" yWindow="3075" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" state="visible" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
